--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H2">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I2">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J2">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>1529.589614858483</v>
+        <v>1544.689510036171</v>
       </c>
       <c r="R2">
-        <v>1529.589614858483</v>
+        <v>6178.758040144682</v>
       </c>
       <c r="S2">
-        <v>0.01648263381654606</v>
+        <v>0.01589262549033085</v>
       </c>
       <c r="T2">
-        <v>0.01648263381654606</v>
+        <v>0.008762867250118888</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H3">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I3">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J3">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>1035.12269651348</v>
+        <v>1114.698348506728</v>
       </c>
       <c r="R3">
-        <v>1035.12269651348</v>
+        <v>6688.190091040368</v>
       </c>
       <c r="S3">
-        <v>0.01115433067542496</v>
+        <v>0.01146863707716439</v>
       </c>
       <c r="T3">
-        <v>0.01115433067542496</v>
+        <v>0.009485356366208337</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H4">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I4">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J4">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>780.925894207122</v>
+        <v>793.4001265425571</v>
       </c>
       <c r="R4">
-        <v>780.925894207122</v>
+        <v>4760.400759255343</v>
       </c>
       <c r="S4">
-        <v>0.008415143138419951</v>
+        <v>0.00816294212733192</v>
       </c>
       <c r="T4">
-        <v>0.008415143138419951</v>
+        <v>0.006751317925008589</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H5">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I5">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J5">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>734.2650166317386</v>
+        <v>747.4448483387017</v>
       </c>
       <c r="R5">
-        <v>734.2650166317386</v>
+        <v>4484.66909003221</v>
       </c>
       <c r="S5">
-        <v>0.00791233235102788</v>
+        <v>0.007690128645365091</v>
       </c>
       <c r="T5">
-        <v>0.00791233235102788</v>
+        <v>0.00636026846193568</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H6">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I6">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J6">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>1078.838398688698</v>
+        <v>1142.564378700484</v>
       </c>
       <c r="R6">
-        <v>1078.838398688698</v>
+        <v>6855.386272202903</v>
       </c>
       <c r="S6">
-        <v>0.0116254046837654</v>
+        <v>0.01175533830669578</v>
       </c>
       <c r="T6">
-        <v>0.0116254046837654</v>
+        <v>0.009722478119598735</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H7">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I7">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J7">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>1297.153922326903</v>
+        <v>1313.151128852365</v>
       </c>
       <c r="R7">
-        <v>1297.153922326903</v>
+        <v>5252.604515409458</v>
       </c>
       <c r="S7">
-        <v>0.01397794081348342</v>
+        <v>0.01351042974491821</v>
       </c>
       <c r="T7">
-        <v>0.01397794081348342</v>
+        <v>0.007449373448006122</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H8">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I8">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J8">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>5668.549561178223</v>
+        <v>5998.275254196299</v>
       </c>
       <c r="R8">
-        <v>5668.549561178223</v>
+        <v>35989.6515251778</v>
       </c>
       <c r="S8">
-        <v>0.0610834604133265</v>
+        <v>0.06171359459845664</v>
       </c>
       <c r="T8">
-        <v>0.0610834604133265</v>
+        <v>0.05104141263408125</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H9">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I9">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J9">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>3836.090576249091</v>
+        <v>4328.551127135461</v>
       </c>
       <c r="R9">
-        <v>3836.090576249091</v>
+        <v>38956.96014421916</v>
       </c>
       <c r="S9">
-        <v>0.04133715059334186</v>
+        <v>0.04453454337092151</v>
       </c>
       <c r="T9">
-        <v>0.04133715059334186</v>
+        <v>0.05524972300161007</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H10">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I10">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J10">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>2894.055432855465</v>
+        <v>3080.898986363282</v>
       </c>
       <c r="R10">
-        <v>2894.055432855465</v>
+        <v>27728.09087726954</v>
       </c>
       <c r="S10">
-        <v>0.03118591776589413</v>
+        <v>0.03169800367367357</v>
       </c>
       <c r="T10">
-        <v>0.03118591776589413</v>
+        <v>0.03932466328638692</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H11">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I11">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J11">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>2721.133562482671</v>
+        <v>2902.447325845799</v>
       </c>
       <c r="R11">
-        <v>2721.133562482671</v>
+        <v>26122.02593261219</v>
       </c>
       <c r="S11">
-        <v>0.02932253699987689</v>
+        <v>0.02986199365981285</v>
       </c>
       <c r="T11">
-        <v>0.02932253699987689</v>
+        <v>0.03704690231668041</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H12">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I12">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J12">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>3998.097837526721</v>
+        <v>4436.759358147517</v>
       </c>
       <c r="R12">
-        <v>3998.097837526721</v>
+        <v>39930.83422332766</v>
       </c>
       <c r="S12">
-        <v>0.04308291712922917</v>
+        <v>0.04564784988285966</v>
       </c>
       <c r="T12">
-        <v>0.04308291712922917</v>
+        <v>0.05663089527249572</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H13">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I13">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J13">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>4807.159532046816</v>
+        <v>5099.174863322944</v>
       </c>
       <c r="R13">
-        <v>4807.159532046816</v>
+        <v>30595.04917993767</v>
       </c>
       <c r="S13">
-        <v>0.05180124753382122</v>
+        <v>0.05246314931639751</v>
       </c>
       <c r="T13">
-        <v>0.05180124753382122</v>
+        <v>0.04339065435687051</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H14">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I14">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J14">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>5771.946529622424</v>
+        <v>5777.708302540389</v>
       </c>
       <c r="R14">
-        <v>5771.946529622424</v>
+        <v>34666.24981524234</v>
       </c>
       <c r="S14">
-        <v>0.06219765101193646</v>
+        <v>0.05944427902698672</v>
       </c>
       <c r="T14">
-        <v>0.06219765101193646</v>
+        <v>0.04916453164482774</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H15">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I15">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J15">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>3906.062644408813</v>
+        <v>4169.382818456877</v>
       </c>
       <c r="R15">
-        <v>3906.062644408813</v>
+        <v>37524.4453661119</v>
       </c>
       <c r="S15">
-        <v>0.04209115935860785</v>
+        <v>0.04289693121435363</v>
       </c>
       <c r="T15">
-        <v>0.04209115935860785</v>
+        <v>0.05321809516429579</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H16">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I16">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J16">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>2946.844343852395</v>
+        <v>2967.609003996012</v>
       </c>
       <c r="R16">
-        <v>2946.844343852395</v>
+        <v>26708.48103596411</v>
       </c>
       <c r="S16">
-        <v>0.03175476334452808</v>
+        <v>0.03053241327516878</v>
       </c>
       <c r="T16">
-        <v>0.03175476334452808</v>
+        <v>0.03787862742801155</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H17">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I17">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J17">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>2770.768298503926</v>
+        <v>2795.719319565027</v>
       </c>
       <c r="R17">
-        <v>2770.768298503926</v>
+        <v>25161.47387608525</v>
       </c>
       <c r="S17">
-        <v>0.02985739365062302</v>
+        <v>0.0287639165238386</v>
       </c>
       <c r="T17">
-        <v>0.02985739365062302</v>
+        <v>0.03568462366723564</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H18">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I18">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J18">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>4071.024993138934</v>
+        <v>4273.612045730865</v>
       </c>
       <c r="R18">
-        <v>4071.024993138934</v>
+        <v>38462.50841157779</v>
       </c>
       <c r="S18">
-        <v>0.04386876948437189</v>
+        <v>0.04396929952102601</v>
       </c>
       <c r="T18">
-        <v>0.04386876948437189</v>
+        <v>0.05454847934283976</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H19">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I19">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J19">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>4894.844347549774</v>
+        <v>4911.66938751525</v>
       </c>
       <c r="R19">
-        <v>4894.844347549774</v>
+        <v>29470.01632509151</v>
       </c>
       <c r="S19">
-        <v>0.05274612627199204</v>
+        <v>0.05053398861126124</v>
       </c>
       <c r="T19">
-        <v>0.05274612627199204</v>
+        <v>0.0417951049770459</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H20">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I20">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J20">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>5069.224211663472</v>
+        <v>5198.410793180192</v>
       </c>
       <c r="R20">
-        <v>5069.224211663472</v>
+        <v>31190.46475908115</v>
       </c>
       <c r="S20">
-        <v>0.05462521816516697</v>
+        <v>0.05348414379985784</v>
       </c>
       <c r="T20">
-        <v>0.05462521816516697</v>
+        <v>0.04423508743626729</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H21">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I21">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J21">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>3430.507754652862</v>
+        <v>3751.342835157741</v>
       </c>
       <c r="R21">
-        <v>3430.507754652862</v>
+        <v>33762.08551641967</v>
       </c>
       <c r="S21">
-        <v>0.03696664946956778</v>
+        <v>0.03859590317513185</v>
       </c>
       <c r="T21">
-        <v>0.03696664946956778</v>
+        <v>0.04788222350597492</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H22">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I22">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J22">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>2588.072259366082</v>
+        <v>2670.063954168227</v>
       </c>
       <c r="R22">
-        <v>2588.072259366082</v>
+        <v>24030.57558751405</v>
       </c>
       <c r="S22">
-        <v>0.02788868787255649</v>
+        <v>0.02747110418185846</v>
       </c>
       <c r="T22">
-        <v>0.02788868787255649</v>
+        <v>0.03408075578444279</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H23">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I23">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J23">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>2433.4331012253</v>
+        <v>2515.408657640107</v>
       </c>
       <c r="R23">
-        <v>2433.4331012253</v>
+        <v>22638.67791876096</v>
       </c>
       <c r="S23">
-        <v>0.02622231893766458</v>
+        <v>0.02587992440634491</v>
       </c>
       <c r="T23">
-        <v>0.02622231893766458</v>
+        <v>0.0321067321347406</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H24">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I24">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J24">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>3575.386285301742</v>
+        <v>3845.121598579857</v>
       </c>
       <c r="R24">
-        <v>3575.386285301742</v>
+        <v>34606.09438721871</v>
       </c>
       <c r="S24">
-        <v>0.03852783931118794</v>
+        <v>0.03956075129271835</v>
       </c>
       <c r="T24">
-        <v>0.03852783931118794</v>
+        <v>0.04907921773113826</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H25">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I25">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J25">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N25">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O25">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P25">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q25">
-        <v>4298.907370603547</v>
+        <v>4419.204608402526</v>
       </c>
       <c r="R25">
-        <v>4298.907370603547</v>
+        <v>26515.22765041516</v>
       </c>
       <c r="S25">
-        <v>0.04632439663070333</v>
+        <v>0.04546723684609016</v>
       </c>
       <c r="T25">
-        <v>0.04632439663070333</v>
+        <v>0.0376045507038222</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H26">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I26">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J26">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N26">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O26">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P26">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q26">
-        <v>1511.658342730161</v>
+        <v>1569.057149860942</v>
       </c>
       <c r="R26">
-        <v>1511.658342730161</v>
+        <v>9414.342899165649</v>
       </c>
       <c r="S26">
-        <v>0.01628940905254077</v>
+        <v>0.01614333333245848</v>
       </c>
       <c r="T26">
-        <v>0.01628940905254077</v>
+        <v>0.01335165360683977</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H27">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I27">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J27">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P27">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q27">
-        <v>1022.988025502979</v>
+        <v>1132.282832439064</v>
       </c>
       <c r="R27">
-        <v>1022.988025502979</v>
+        <v>10190.54549195158</v>
       </c>
       <c r="S27">
-        <v>0.01102356923666555</v>
+        <v>0.01164955603580405</v>
       </c>
       <c r="T27">
-        <v>0.01102356923666555</v>
+        <v>0.0144524832939045</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H28">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I28">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J28">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N28">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O28">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P28">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q28">
-        <v>771.7711545403149</v>
+        <v>805.916097159891</v>
       </c>
       <c r="R28">
-        <v>771.7711545403149</v>
+        <v>7253.244874439019</v>
       </c>
       <c r="S28">
-        <v>0.008316493003672695</v>
+        <v>0.008291713399731263</v>
       </c>
       <c r="T28">
-        <v>0.008316493003672695</v>
+        <v>0.0102867310152553</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H29">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I29">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J29">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N29">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O29">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P29">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q29">
-        <v>725.6572791708977</v>
+        <v>759.2358695988717</v>
       </c>
       <c r="R29">
-        <v>725.6572791708977</v>
+        <v>6833.122826389846</v>
       </c>
       <c r="S29">
-        <v>0.007819576631992002</v>
+        <v>0.007811441235253801</v>
       </c>
       <c r="T29">
-        <v>0.007819576631992002</v>
+        <v>0.009690903550903459</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H30">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I30">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J30">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N30">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O30">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P30">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q30">
-        <v>1066.191251557563</v>
+        <v>1160.588452196092</v>
       </c>
       <c r="R30">
-        <v>1066.191251557563</v>
+        <v>10445.29606976483</v>
       </c>
       <c r="S30">
-        <v>0.01148912087733687</v>
+        <v>0.01194078000744844</v>
       </c>
       <c r="T30">
-        <v>0.01148912087733687</v>
+        <v>0.01481377685496719</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H31">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I31">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J31">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N31">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O31">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P31">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q31">
-        <v>1281.947477573605</v>
+        <v>1333.866226310764</v>
       </c>
       <c r="R31">
-        <v>1281.947477573605</v>
+        <v>8003.197357864581</v>
       </c>
       <c r="S31">
-        <v>0.01381407839046132</v>
+        <v>0.01372355819808828</v>
       </c>
       <c r="T31">
-        <v>0.01381407839046132</v>
+        <v>0.01135033214892282</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H32">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I32">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J32">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N32">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O32">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P32">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q32">
-        <v>2436.070774379607</v>
+        <v>2468.623344232301</v>
       </c>
       <c r="R32">
-        <v>2436.070774379607</v>
+        <v>9874.493376929206</v>
       </c>
       <c r="S32">
-        <v>0.02625074211752136</v>
+        <v>0.02539857106018242</v>
       </c>
       <c r="T32">
-        <v>0.02625074211752136</v>
+        <v>0.01400425037879985</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H33">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I33">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J33">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P33">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q33">
-        <v>1648.567775551222</v>
+        <v>1781.439148140824</v>
       </c>
       <c r="R33">
-        <v>1648.567775551222</v>
+        <v>10688.63488884494</v>
       </c>
       <c r="S33">
-        <v>0.01776472506233817</v>
+        <v>0.01832843754765524</v>
       </c>
       <c r="T33">
-        <v>0.01776472506233817</v>
+        <v>0.01515888597795687</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H34">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I34">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J34">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N34">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O34">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P34">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q34">
-        <v>1243.726244840018</v>
+        <v>1267.961011565331</v>
       </c>
       <c r="R34">
-        <v>1243.726244840018</v>
+        <v>7607.766069391986</v>
       </c>
       <c r="S34">
-        <v>0.0134022119806446</v>
+        <v>0.01304548866437048</v>
       </c>
       <c r="T34">
-        <v>0.0134022119806446</v>
+        <v>0.01078952172959336</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H35">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I35">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J35">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N35">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O35">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P35">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q35">
-        <v>1169.412717169517</v>
+        <v>1194.518244052738</v>
       </c>
       <c r="R35">
-        <v>1169.412717169517</v>
+        <v>7167.10946431643</v>
       </c>
       <c r="S35">
-        <v>0.0126014202831134</v>
+        <v>0.01228986859220223</v>
       </c>
       <c r="T35">
-        <v>0.0126014202831134</v>
+        <v>0.01016457164932209</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H36">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I36">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J36">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N36">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O36">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P36">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q36">
-        <v>1718.190727626759</v>
+        <v>1825.972843877372</v>
       </c>
       <c r="R36">
-        <v>1718.190727626759</v>
+        <v>10955.83706326423</v>
       </c>
       <c r="S36">
-        <v>0.01851497180377815</v>
+        <v>0.01878662499791165</v>
       </c>
       <c r="T36">
-        <v>0.01851497180377815</v>
+        <v>0.01553783870084493</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H37">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I37">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J37">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N37">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O37">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P37">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q37">
-        <v>2065.88664655964</v>
+        <v>2098.593607406603</v>
       </c>
       <c r="R37">
-        <v>2065.88664655964</v>
+        <v>8394.374429626414</v>
       </c>
       <c r="S37">
-        <v>0.02226169213687115</v>
+        <v>0.02159149916032936</v>
       </c>
       <c r="T37">
-        <v>0.02226169213687115</v>
+        <v>0.01190510913304614</v>
       </c>
     </row>
   </sheetData>
